--- a/backend/common/primary_data/北区升学数据.xlsx
+++ b/backend/common/primary_data/北区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15880" firstSheet="14" activeTab="14"/>
+    <workbookView windowHeight="15840" firstSheet="14" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="沙頭角中心小學" sheetId="1" r:id="rId1"/>
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H8" sqref="J20 H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>

--- a/backend/common/primary_data/北区升学数据.xlsx
+++ b/backend/common/primary_data/北区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15840" firstSheet="14" activeTab="14"/>
+    <workbookView windowHeight="15820" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="沙頭角中心小學" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="救世軍中原慈善基金皇后山學校" sheetId="3" r:id="rId3"/>
     <sheet name="東華三院曾憲備小學" sheetId="4" r:id="rId4"/>
     <sheet name="寶血會培靈學校" sheetId="5" r:id="rId5"/>
-    <sheet name="佛教正覺蓮社學校" sheetId="6" r:id="rId6"/>
+    <sheet name="香海正觉莲社佛教正觉莲社学校" sheetId="6" r:id="rId6"/>
     <sheet name="粉嶺公立學校" sheetId="7" r:id="rId7"/>
     <sheet name="上水宣道小學" sheetId="8" r:id="rId8"/>
     <sheet name="五旬節于良發小學" sheetId="9" r:id="rId9"/>
@@ -712,6 +712,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>香海正</t>
     </r>
     <r>
@@ -1121,9 +1126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF175CEB"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1135,9 +1140,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF175CEB"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -3060,7 +3065,7 @@
   <sheetPr codeName="五旬節靳茂生小學"/>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="J20 H8"/>
     </sheetView>
   </sheetViews>
@@ -3253,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="15.2" spans="3:4">
       <c r="C22" t="s">
         <v>78</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" ht="15.2" spans="3:4">
       <c r="C24" t="s">
         <v>80</v>
       </c>
@@ -6810,8 +6815,8 @@
   <sheetPr codeName="佛教正覺蓮社學校"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="7" outlineLevelCol="4"/>

--- a/backend/common/primary_data/北区升学数据.xlsx
+++ b/backend/common/primary_data/北区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" firstSheet="5" activeTab="5"/>
+    <workbookView windowHeight="15820" firstSheet="23" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="沙頭角中心小學" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,11 @@
     <sheet name="聖公會榮真小學" sheetId="23" r:id="rId23"/>
     <sheet name="金錢村何東學校" sheetId="24" r:id="rId24"/>
     <sheet name="佛教陳式宏學校" sheetId="25" r:id="rId25"/>
-    <sheet name="馬錦燦紀念小學" sheetId="26" r:id="rId26"/>
+    <sheet name="東華三院馬錦燦紀念小學" sheetId="26" r:id="rId26"/>
     <sheet name="港九電器商聯會小學" sheetId="27" r:id="rId27"/>
     <sheet name="石湖墟公立學校" sheetId="28" r:id="rId28"/>
     <sheet name="育賢學校" sheetId="29" r:id="rId29"/>
-    <sheet name="佛教正慧小學" sheetId="30" r:id="rId30"/>
+    <sheet name="香海正覺蓮社佛教正慧小學" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1126,17 +1126,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF175CEB"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF175CEB"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5278,8 +5278,8 @@
   <sheetPr codeName="馬錦燦紀念小學"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -6317,7 +6317,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -6815,7 +6815,7 @@
   <sheetPr codeName="佛教正覺蓮社學校"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>

--- a/backend/common/primary_data/北区升学数据.xlsx
+++ b/backend/common/primary_data/北区升学数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820" firstSheet="23" activeTab="25"/>
+    <workbookView windowHeight="15820" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="沙頭角中心小學" sheetId="1" r:id="rId1"/>
@@ -3472,10 +3472,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="李志達紀念學校"/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:4">
+    <row r="33" customHeight="1" spans="3:5">
       <c r="C33" s="3" t="s">
         <v>92</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:4">
+    <row r="34" customHeight="1" spans="3:5">
       <c r="C34" s="3" t="s">
         <v>22</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:4">
+    <row r="35" customHeight="1" spans="3:5">
       <c r="C35" s="3" t="s">
         <v>25</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:4">
+    <row r="36" customHeight="1" spans="3:5">
       <c r="C36" s="3" t="s">
         <v>51</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:4">
+    <row r="37" customHeight="1" spans="3:5">
       <c r="C37" s="3" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:4">
+    <row r="38" customHeight="1" spans="3:5">
       <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:4">
+    <row r="39" customHeight="1" spans="3:5">
       <c r="C39" s="3" t="s">
         <v>93</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="3:4">
+    <row r="40" customHeight="1" spans="3:5">
       <c r="C40" s="3" t="s">
         <v>73</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:4">
+    <row r="41" customHeight="1" spans="3:5">
       <c r="C41" s="3" t="s">
         <v>31</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:4">
+    <row r="42" customHeight="1" spans="3:5">
       <c r="C42" s="3" t="s">
         <v>50</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="3:4">
+    <row r="43" customHeight="1" spans="3:5">
       <c r="C43" s="3" t="s">
         <v>81</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:4">
+    <row r="44" customHeight="1" spans="3:5">
       <c r="C44" s="3" t="s">
         <v>94</v>
       </c>
@@ -3851,12 +3851,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="3:4">
+    <row r="45" customHeight="1" spans="3:5">
       <c r="C45" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="3:5">
+      <c r="E46">
+        <f>SUM(D2:D45)</f>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5278,7 +5284,7 @@
   <sheetPr codeName="馬錦燦紀念小學"/>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B40"/>
     </sheetView>
   </sheetViews>
